--- a/tpl.xlsx
+++ b/tpl.xlsx
@@ -269,13 +269,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ85"/>
+  <dimension ref="A1:AMJ81"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="14.77"/>
@@ -5413,60 +5413,8 @@
       <c r="J81" s="8"/>
       <c r="K81" s="8"/>
     </row>
-    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="5"/>
-      <c r="B82" s="5"/>
-      <c r="C82" s="5"/>
-      <c r="D82" s="6"/>
-      <c r="E82" s="6"/>
-      <c r="F82" s="6"/>
-      <c r="G82" s="6"/>
-      <c r="H82" s="6"/>
-      <c r="I82" s="6"/>
-      <c r="J82" s="6"/>
-      <c r="K82" s="6"/>
-    </row>
-    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="5"/>
-      <c r="B83" s="5"/>
-      <c r="C83" s="5"/>
-      <c r="D83" s="6"/>
-      <c r="E83" s="6"/>
-      <c r="F83" s="6"/>
-      <c r="G83" s="6"/>
-      <c r="H83" s="6"/>
-      <c r="I83" s="6"/>
-      <c r="J83" s="6"/>
-      <c r="K83" s="6"/>
-    </row>
-    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="5"/>
-      <c r="B84" s="5"/>
-      <c r="C84" s="5"/>
-      <c r="D84" s="6"/>
-      <c r="E84" s="6"/>
-      <c r="F84" s="6"/>
-      <c r="G84" s="6"/>
-      <c r="H84" s="6"/>
-      <c r="I84" s="6"/>
-      <c r="J84" s="6"/>
-      <c r="K84" s="6"/>
-    </row>
-    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="5"/>
-      <c r="B85" s="5"/>
-      <c r="C85" s="5"/>
-      <c r="D85" s="6"/>
-      <c r="E85" s="6"/>
-      <c r="F85" s="6"/>
-      <c r="G85" s="6"/>
-      <c r="H85" s="6"/>
-      <c r="I85" s="6"/>
-      <c r="J85" s="6"/>
-      <c r="K85" s="6"/>
-    </row>
   </sheetData>
-  <mergeCells count="63">
+  <mergeCells count="60">
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="B2:B5"/>
     <mergeCell ref="C2:C5"/>
@@ -5527,9 +5475,6 @@
     <mergeCell ref="A78:A81"/>
     <mergeCell ref="B78:B81"/>
     <mergeCell ref="C78:C81"/>
-    <mergeCell ref="A82:A85"/>
-    <mergeCell ref="B82:B85"/>
-    <mergeCell ref="C82:C85"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
